--- a/public/assets/file/template_guru.xlsx
+++ b/public/assets/file/template_guru.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Users\Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\PROJECT\Bank Soal\bank-soal\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D4852-161F-4C0D-8932-6E97F3A8B476}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D61EB-B3CA-49CD-8976-D7CDF8603812}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7941C890-00F6-4298-AAEE-8A82E104B4E7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>Nama Guru</t>
   </si>
   <si>
-    <t>Id Mapel</t>
+    <t>No Mata Pelajaran</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
     <col min="2" max="2" width="13.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="13" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
